--- a/public/files/PhieuNhapKhoTTB.xlsx
+++ b/public/files/PhieuNhapKhoTTB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ky1nam4\Hệ thống thông tin quản lý\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD16E8D-5B0E-41FB-AA98-E41DCE3AB22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E477FE-A699-4231-A025-9670F3FCEA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8DAE062-BC05-4C43-A803-0E0EDCB5E64A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Mic 2</t>
   </si>
   <si>
-    <t>Nguyen Hoang Nam</t>
-  </si>
-  <si>
     <t>Số lượng thiết bị</t>
   </si>
   <si>
@@ -84,13 +81,37 @@
   </si>
   <si>
     <t>Máy chiếu 1</t>
+  </si>
+  <si>
+    <t>Mic 3</t>
+  </si>
+  <si>
+    <t>Mic 4</t>
+  </si>
+  <si>
+    <t>Mic 5</t>
+  </si>
+  <si>
+    <t>Mic 6</t>
+  </si>
+  <si>
+    <t>Mic 7</t>
+  </si>
+  <si>
+    <t>Mic 8</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Nam</t>
+  </si>
+  <si>
+    <t>Mic 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +132,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,74 +303,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ECB363-1B8D-4D8B-B9C1-7783868CFC3E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -671,63 +698,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23">
+        <v>4</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
@@ -736,7 +763,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -746,10 +773,10 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="11" t="s">
         <v>8</v>
       </c>
@@ -757,14 +784,14 @@
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
@@ -773,46 +800,213 @@
       <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="20">
-        <v>7</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="5" t="s">
+      <c r="B11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="5" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="3">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="3">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="3">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="3">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="3">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="3">
+        <v>22</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>8</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="3">
+        <v>24</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="3">
+        <v>27</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="27">
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="D1:J2"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:F10"/>
     <mergeCell ref="I12:K12"/>
@@ -820,13 +1014,8 @@
     <mergeCell ref="I9:K10"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D1:J2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
